--- a/parts!.xlsx
+++ b/parts!.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="162" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="326" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="352">
   <si>
     <t>Utility</t>
   </si>
@@ -644,6 +644,9 @@
     <t>fairings/fairingSize1/fairingSize1</t>
   </si>
   <si>
+    <t>hvy rocketry</t>
+  </si>
+  <si>
     <t>landingLegLT-1/landingLegLT-1/landingLeg1</t>
   </si>
   <si>
@@ -662,6 +665,15 @@
     <t>fairings/fairingSize2/fairingSize2</t>
   </si>
   <si>
+    <t>Adv rocketry</t>
+  </si>
+  <si>
+    <t>propulsion systems</t>
+  </si>
+  <si>
+    <t>precision propulsion</t>
+  </si>
+  <si>
     <t>landingLegLT-2/landingLegLT-2/landingLeg1-2</t>
   </si>
   <si>
@@ -698,6 +710,12 @@
     <t>HeatShield/HeatShield1/HeatShield1</t>
   </si>
   <si>
+    <t>General rocketry</t>
+  </si>
+  <si>
+    <t>fuel systems</t>
+  </si>
+  <si>
     <t>largeAdapter/largeAdapter/largeAdapter</t>
   </si>
   <si>
@@ -731,6 +749,18 @@
     <t>HeatShield/HeatShield3/HeatShield3</t>
   </si>
   <si>
+    <t>Basic Rocketry</t>
+  </si>
+  <si>
+    <t>general construction</t>
+  </si>
+  <si>
+    <t>adv construction</t>
+  </si>
+  <si>
+    <t>actuators</t>
+  </si>
+  <si>
     <t>launchClamp1/launchClamp1/launchClamp1</t>
   </si>
   <si>
@@ -743,6 +773,9 @@
     <t>InflatableHeatShield/HeatShield/InflatableHeatShield</t>
   </si>
   <si>
+    <t>aerodynamics</t>
+  </si>
+  <si>
     <t>launchEscapeSystem/part/LaunchEscapeSystem</t>
   </si>
   <si>
@@ -755,6 +788,15 @@
     <t>intakeRadialLong/intakeRadialLong/IntakeRadialLong</t>
   </si>
   <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Stability</t>
+  </si>
+  <si>
+    <t>aviation</t>
+  </si>
+  <si>
     <t>linearRCS/linearRCS/linearRcs</t>
   </si>
   <si>
@@ -767,6 +809,9 @@
     <t>miniIntake/SmallIntake/miniIntake</t>
   </si>
   <si>
+    <t>landing</t>
+  </si>
+  <si>
     <t>mk2CargoBay/BayL/mk2CargoBayL</t>
   </si>
   <si>
@@ -779,6 +824,18 @@
     <t>protectiveRocketNoseMk7/protectiveRocketNoseMk7/rocketNoseCone</t>
   </si>
   <si>
+    <t>Engineering101</t>
+  </si>
+  <si>
+    <t>flight control</t>
+  </si>
+  <si>
+    <t>adv flight control</t>
+  </si>
+  <si>
+    <t>specialized control</t>
+  </si>
+  <si>
     <t>mk2CargoBay/BayS/mk2CargoBayS</t>
   </si>
   <si>
@@ -791,6 +848,9 @@
     <t>ramAirIntake/ramAirIntake/ramAirIntake</t>
   </si>
   <si>
+    <t>command modules</t>
+  </si>
+  <si>
     <t>mk2CrewCabin/mk2CrewCabin/mk2CrewCabin</t>
   </si>
   <si>
@@ -800,6 +860,9 @@
     <t>shuttleWings/delta/wingShuttleDelta</t>
   </si>
   <si>
+    <t>Survivability</t>
+  </si>
+  <si>
     <t>mk2DockingPort/mk2DockingPort/mk2DockingPort</t>
   </si>
   <si>
@@ -809,6 +872,9 @@
     <t>shuttleWings/elevon1/wingShuttleElevon1</t>
   </si>
   <si>
+    <t>space exploration</t>
+  </si>
+  <si>
     <t>mk3CargoBay/long/mk3CargoBayL</t>
   </si>
   <si>
@@ -818,6 +884,9 @@
     <t>shuttleWings/elevon2/wingShuttleElevon2</t>
   </si>
   <si>
+    <t>basic science</t>
+  </si>
+  <si>
     <t>mk3CargoBay/medium/mk3CargoBayM</t>
   </si>
   <si>
@@ -975,6 +1044,15 @@
   </si>
   <si>
     <t>wings/swept2/sweptWing2</t>
+  </si>
+  <si>
+    <t>sitek</t>
+  </si>
+  <si>
+    <t>-REMOVE HEATSHIELDS AND PARACHUTES</t>
+  </si>
+  <si>
+    <t>ADD SOME ISRU</t>
   </si>
   <si>
     <t>Thermal/FoldingRadiators/foldingRadLarge/foldingRadLarge</t>
@@ -1095,8 +1173,8 @@
   </sheetPr>
   <dimension ref="A1:S152"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D81" activeCellId="0" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1792,450 +1870,683 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="0" t="s">
+        <v>209</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="I23" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="1"/>
+      <c r="D24" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="I24" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="1"/>
       <c r="I25" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>232</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="I26" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="1"/>
       <c r="I27" s="0" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="1"/>
+      <c r="B28" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="I28" s="0" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="L28" s="0" t="s">
         <v>159</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="0" t="s">
+        <v>252</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="I29" s="0" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="L29" s="0" t="s">
         <v>166</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>259</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="I30" s="0" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>105</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="0" t="s">
+        <v>264</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="I31" s="0" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F32" s="1"/>
+      <c r="B32" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="I32" s="0" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="I33" s="0" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="1"/>
+      <c r="C34" s="0" t="s">
+        <v>281</v>
+      </c>
       <c r="I34" s="0" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="0" t="s">
+        <v>285</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="I35" s="0" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="0" t="s">
+        <v>289</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="I36" s="0" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F37" s="1"/>
       <c r="I37" s="0" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F38" s="1"/>
       <c r="I38" s="0" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="Q38" s="0" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F39" s="1"/>
       <c r="I39" s="0" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F40" s="1"/>
       <c r="I40" s="0" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="Q40" s="0" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F41" s="1"/>
       <c r="I41" s="0" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="Q41" s="0" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F42" s="1"/>
       <c r="I42" s="0" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="Q42" s="0" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F43" s="1"/>
       <c r="I43" s="0" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="Q43" s="0" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F44" s="1"/>
       <c r="I44" s="0" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="Q44" s="0" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F45" s="1"/>
       <c r="I45" s="0" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="Q45" s="0" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F46" s="1"/>
       <c r="I46" s="0" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="Q46" s="0" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F47" s="1"/>
       <c r="I47" s="0" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F48" s="1"/>
       <c r="I48" s="0" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="Q48" s="0" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F49" s="1"/>
       <c r="I49" s="0" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="Q49" s="0" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F50" s="1"/>
       <c r="I50" s="0" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I51" s="0" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="Q51" s="0" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I52" s="0" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="Q52" s="0" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q53" s="0" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q54" s="0" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q55" s="0" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q56" s="0" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q57" s="0" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q58" s="0" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q59" s="0" t="s">
-        <v>319</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F62" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F71" s="1"/>
+      <c r="J71" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="H72" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E73" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F75" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G79" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>177</v>
+      </c>
       <c r="F90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2409,37 +2720,37 @@
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F147" s="1"/>
       <c r="H147" s="0" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F148" s="1"/>
       <c r="H148" s="0" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F149" s="1"/>
       <c r="H149" s="0" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F150" s="1"/>
       <c r="H150" s="0" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F151" s="1"/>
       <c r="H151" s="0" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F152" s="1"/>
       <c r="H152" s="0" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
